--- a/2_Datasets/B1/dados_turton.xlsx
+++ b/2_Datasets/B1/dados_turton.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RCGI-001\Documents\workshop\aspen_data_collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\aspen_data_collection\2_Datasets\B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8093C15C-DA60-429B-91C7-D24B42D48FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1147A505-FA7B-4C07-B364-53AD719A2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{779B2B9F-8506-440E-AC50-FAEB37B697D1}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{779B2B9F-8506-440E-AC50-FAEB37B697D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,49 +24,14 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>dataset(3,:) = Pent;</t>
-  </si>
-  <si>
-    <t>dataset(4,:) = Duty_reb;</t>
-  </si>
-  <si>
-    <t>dataset(5,:) = Duty_cond;</t>
-  </si>
-  <si>
-    <t>dataset(6,:) = MoleFlow;</t>
-  </si>
-  <si>
-    <t>dataset(7,:) = CBM_Tower;</t>
-  </si>
-  <si>
-    <t>dataset(8,:) = CBM0_Tower;</t>
-  </si>
-  <si>
-    <t>dataset(9,:) = water_usage;</t>
-  </si>
-  <si>
-    <t>dataset(10,:) = lp_usage;</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,11 +54,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,61 +369,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0665596D-A328-49D3-8B2A-D16C4117B5DF}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B7D0E6-951D-4174-94C5-F6A99597960F}">
   <dimension ref="A1:J1019"/>
   <sheetViews>
